--- a/手板报价单_2025-06-08.xlsx
+++ b/手板报价单_2025-06-08.xlsx
@@ -192,6 +192,761 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="323850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="409575" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="352425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="428625"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="447675"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="390525"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="457200" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="438150" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="371475" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="409575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="342900"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="142875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="285750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="466725" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="428625" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="400050"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="457200"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="295275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="371475"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,22 +1404,23 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="inlineStr"/>
-      <c r="C11" s="8" t="n">
-        <v>190169051</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>电池仓</t>
+        </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F11" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>0</v>
@@ -678,31 +1434,26 @@
       <c r="B12" s="7" t="inlineStr"/>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>da-14-010578</t>
+          <t>电池盖</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F12" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="n">
@@ -711,31 +1462,26 @@
       <c r="B13" s="7" t="inlineStr"/>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>da-14-010579</t>
+          <t>前壳</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F13" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="7" t="n">
@@ -744,31 +1490,26 @@
       <c r="B14" s="7" t="inlineStr"/>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>da-14-010592</t>
+          <t>按键1</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="7" t="n">
@@ -777,31 +1518,26 @@
       <c r="B15" s="7" t="inlineStr"/>
       <c r="C15" s="8" t="inlineStr">
         <is>
-          <t>da-14-010634</t>
+          <t>按键2</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F15" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
+      <c r="H15" s="8" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="7" t="n">
@@ -810,113 +1546,780 @@
       <c r="B16" s="7" t="inlineStr"/>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>xieyijiexi</t>
+          <t>按键3</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
         <is>
-          <t>喷砂+
-黑色氧化</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>6061AL</t>
+          <t>树脂</t>
         </is>
       </c>
       <c r="F16" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="inlineStr">
-        <is>
-          <t>局部镭雕去氧化面</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="H16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr"/>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>按键板</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr"/>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>电源板</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr"/>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>负极簧片</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr"/>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>负极接线片</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr"/>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>接口板</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7" t="inlineStr"/>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>激光装饰片</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="inlineStr"/>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>镜头</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="inlineStr"/>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件1</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr"/>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件2</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="inlineStr"/>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr"/>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>镜头转接件3</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="inlineStr"/>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="inlineStr"/>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>机芯支架</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="inlineStr"/>
+    </row>
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B28" s="7" t="inlineStr"/>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>散热板</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="inlineStr"/>
+    </row>
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7" t="inlineStr"/>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>手柄</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="inlineStr"/>
+    </row>
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7" t="inlineStr"/>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>探测器板</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="inlineStr"/>
+    </row>
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="inlineStr"/>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>显示屏</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="inlineStr"/>
+    </row>
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7" t="inlineStr"/>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>显示屏壳体</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="inlineStr"/>
+    </row>
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7" t="inlineStr"/>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>右饰片</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="inlineStr"/>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="inlineStr"/>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>左饰片</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="inlineStr"/>
+    </row>
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7" t="inlineStr"/>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>装饰片1</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="inlineStr"/>
+    </row>
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7" t="inlineStr"/>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>装饰片2</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="inlineStr"/>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>转接座</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7" t="inlineStr"/>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>转轴座</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8" t="inlineStr"/>
+    </row>
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="7" t="inlineStr"/>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>主板</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="inlineStr"/>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>主壳体</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>合计:</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="5" t="n"/>
+      <c r="E41" s="5" t="n"/>
+      <c r="F41" s="5" t="n"/>
+      <c r="G41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>未 税 总 价: (人民币)</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>手板加工周期:</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>付款方式: 月结30天</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>交货日期: 确认后 (7) 日内完成</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>验收标准: 依据甲方2D、3D、说明文档等相关文件进行验收</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>备 注:</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>此报价单适用于所有杭州海康威视科技有限公司的子公司及关联公司。</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>双方以含税价格结算，具体税率按国家税务政策规定，供应商需提供合格的增值税发票，否则按基</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="F29" s="11" t="inlineStr">
+    <row r="53">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>乙方签名确认</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="F30" s="12" t="inlineStr">
+    <row r="54">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>2025-06-08</t>
         </is>
@@ -924,34 +2327,35 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A48:H48"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A45:H45"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A44:H44"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F30:H30"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>